--- a/biology/Médecine/Centre_hospitalier_mère-enfant_-_Le_Luxembourg/Centre_hospitalier_mère-enfant_-_Le_Luxembourg.xlsx
+++ b/biology/Médecine/Centre_hospitalier_mère-enfant_-_Le_Luxembourg/Centre_hospitalier_mère-enfant_-_Le_Luxembourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_m%C3%A8re-enfant_-_Le_Luxembourg</t>
+          <t>Centre_hospitalier_mère-enfant_-_Le_Luxembourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier mère-enfant - Le Luxembourg est un hôpital pédiatrique d'Hamdallaye, une commune (IV) de Bamako, au Mali.
-Créé par la volonté de la femme du président malien Amadou Toumani Touré, l'hôpital a connu une période de déshérence avant de renaître[1].
-L'hôpital dispose d'une extension nommée centre André Festoc — du nom du mari d'une donatrice française de La chaîne de l'espoir[2],[3] — qui est une unité de chirurgie pédiatrique consacrée à la chirurgie cardiaque[4],[5]. Dans ce centre, les premières opérations à cœur ouvert du pays ont été réalisées à partir de 2018[3]. Ce type d'opérations nécessitait jusqu'à présent une évacuation à l'étranger[3].
+Créé par la volonté de la femme du président malien Amadou Toumani Touré, l'hôpital a connu une période de déshérence avant de renaître.
+L'hôpital dispose d'une extension nommée centre André Festoc — du nom du mari d'une donatrice française de La chaîne de l'espoir, — qui est une unité de chirurgie pédiatrique consacrée à la chirurgie cardiaque,. Dans ce centre, les premières opérations à cœur ouvert du pays ont été réalisées à partir de 2018. Ce type d'opérations nécessitait jusqu'à présent une évacuation à l'étranger.
 </t>
         </is>
       </c>
